--- a/booklist.xlsx
+++ b/booklist.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\GitHub\CyberBookcase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E06FB0D-0C22-4570-8E71-16356D86A4EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E587CE18-7707-412E-982B-043E52EEC6BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2664" yWindow="2904" windowWidth="17280" windowHeight="9072" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="二〇二三" sheetId="1" r:id="rId1"/>
+    <sheet name="二〇二二" sheetId="2" r:id="rId2"/>
+    <sheet name="二〇二一" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="102">
   <si>
     <t>title</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -63,18 +65,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>事件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#88C5C1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>视差之见</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>white</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -174,14 +164,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>表象与本质</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#00508F</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>斯坦尼斯瓦夫·莱姆</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -226,11 +208,227 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>当权的第三帝国</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>战时的第三帝国</t>
+    <t>当代国外马克思主义思潮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张一兵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>white</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>哲学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#8A3834</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>世界哲学史</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>汉斯·约阿西姆·施杜里希</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>统计学习方法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李航</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#3F637B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>历史地理学十讲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>史念海</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#DED5A9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#5A636A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后汉书</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>范晔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>black</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#CBE3C0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贝叶斯的博弈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄黎原</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#F1D579</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#137858</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>导读拉康</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>肖恩·霍默</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#675A56</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>导读齐泽克</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>托尼·迈尔斯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>历史</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>科普</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>去朋友家的路上</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#E09E86</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>尼尔斯·弗雷德里克·达尔</t>
+  </si>
+  <si>
+    <t>冰与火之歌的世界</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>乔治·R.R.马丁</t>
+  </si>
+  <si>
+    <t>#730D08</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>H</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小说</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>想象的共同体</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本尼迪克特·安德森</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#A9B5C1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>社科</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>末世迷宫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>西蒙·斯塔伦海格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>绘本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#489077</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>历史动力学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>彼得·图尔钦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#D88C2E</t>
+  </si>
+  <si>
+    <t>#514343</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宪法学讲义</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>林来梵</t>
+  </si>
+  <si>
+    <t>#F8AC2B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#253D3D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>政治</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#104B83</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -567,15 +765,16 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="23.44140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="27.88671875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="23.44140625" style="1" customWidth="1"/>
     <col min="3" max="3" width="22.44140625" customWidth="1"/>
     <col min="5" max="5" width="11.109375" customWidth="1"/>
     <col min="7" max="7" width="10.5546875" customWidth="1"/>
@@ -586,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -598,13 +797,13 @@
         <v>3</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -612,7 +811,7 @@
         <v>4</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
@@ -627,10 +826,10 @@
         <v>260</v>
       </c>
       <c r="G2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="H2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -638,7 +837,7 @@
         <v>7</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>
@@ -647,16 +846,351 @@
         <v>446</v>
       </c>
       <c r="E3" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F3">
         <v>185</v>
       </c>
       <c r="G3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="H3" t="s">
-        <v>32</v>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4">
+        <v>376</v>
+      </c>
+      <c r="E4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4">
+        <v>260</v>
+      </c>
+      <c r="G4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5">
+        <v>254</v>
+      </c>
+      <c r="E5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F5">
+        <v>260</v>
+      </c>
+      <c r="G5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6">
+        <v>728</v>
+      </c>
+      <c r="E6" t="s">
+        <v>42</v>
+      </c>
+      <c r="F6">
+        <v>260</v>
+      </c>
+      <c r="G6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D7">
+        <v>300</v>
+      </c>
+      <c r="E7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F7">
+        <v>260</v>
+      </c>
+      <c r="G7" t="s">
+        <v>48</v>
+      </c>
+      <c r="H7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D8">
+        <v>464</v>
+      </c>
+      <c r="E8" t="s">
+        <v>55</v>
+      </c>
+      <c r="F8">
+        <v>260</v>
+      </c>
+      <c r="G8" t="s">
+        <v>48</v>
+      </c>
+      <c r="H8" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C9" t="s">
+        <v>58</v>
+      </c>
+      <c r="D9">
+        <v>276</v>
+      </c>
+      <c r="E9" t="s">
+        <v>59</v>
+      </c>
+      <c r="F9">
+        <v>260</v>
+      </c>
+      <c r="G9" t="s">
+        <v>48</v>
+      </c>
+      <c r="H9" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C10" t="s">
+        <v>62</v>
+      </c>
+      <c r="D10">
+        <v>1051</v>
+      </c>
+      <c r="E10" t="s">
+        <v>63</v>
+      </c>
+      <c r="F10">
+        <v>260</v>
+      </c>
+      <c r="G10" t="s">
+        <v>48</v>
+      </c>
+      <c r="H10" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C11" t="s">
+        <v>66</v>
+      </c>
+      <c r="D11">
+        <v>430</v>
+      </c>
+      <c r="E11" t="s">
+        <v>67</v>
+      </c>
+      <c r="F11">
+        <v>260</v>
+      </c>
+      <c r="G11" t="s">
+        <v>48</v>
+      </c>
+      <c r="H11" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C12" t="s">
+        <v>47</v>
+      </c>
+      <c r="D12">
+        <v>336</v>
+      </c>
+      <c r="E12" t="s">
+        <v>81</v>
+      </c>
+      <c r="F12">
+        <v>260</v>
+      </c>
+      <c r="G12" t="s">
+        <v>82</v>
+      </c>
+      <c r="H12" t="s">
+        <v>83</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{465243E7-1A5C-4A6C-AB31-44A893B0B4AF}">
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.88671875" customWidth="1"/>
+    <col min="2" max="2" width="18.44140625" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" customWidth="1"/>
+    <col min="5" max="5" width="13.5546875" customWidth="1"/>
+    <col min="7" max="7" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2">
+        <v>440</v>
+      </c>
+      <c r="E2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2">
+        <v>260</v>
+      </c>
+      <c r="G2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3">
+        <v>756</v>
+      </c>
+      <c r="E3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3">
+        <v>260</v>
+      </c>
+      <c r="G3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -664,7 +1198,7 @@
         <v>8</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
@@ -679,348 +1213,342 @@
         <v>260</v>
       </c>
       <c r="G4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="H4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
         <v>5</v>
       </c>
       <c r="D5">
-        <v>225</v>
+        <v>358</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F5">
         <v>260</v>
       </c>
       <c r="G5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H5" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6">
+        <v>170</v>
+      </c>
+      <c r="E6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6">
+        <v>185</v>
+      </c>
+      <c r="G6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H6" t="s">
         <v>29</v>
       </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E4DA086-B8F9-45AF-A0F0-6576DF1B53E2}">
+  <dimension ref="A1:H10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.44140625" customWidth="1"/>
+    <col min="2" max="2" width="21.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2">
+        <v>376</v>
+      </c>
+      <c r="E2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F2">
+        <v>260</v>
+      </c>
+      <c r="G2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3">
+        <v>225</v>
+      </c>
+      <c r="E3" t="s">
+        <v>70</v>
+      </c>
+      <c r="F3">
+        <v>185</v>
+      </c>
+      <c r="G3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4">
+        <v>195</v>
+      </c>
+      <c r="E4" t="s">
+        <v>101</v>
+      </c>
+      <c r="F4">
+        <v>185</v>
+      </c>
+      <c r="G4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5">
+        <v>1053</v>
+      </c>
+      <c r="E5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5">
+        <v>260</v>
+      </c>
+      <c r="G5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B6" t="s">
+        <v>78</v>
+      </c>
       <c r="C6" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="D6">
-        <v>629</v>
+        <v>272</v>
       </c>
       <c r="E6" t="s">
-        <v>5</v>
+        <v>77</v>
       </c>
       <c r="F6">
-        <v>260</v>
+        <v>185</v>
       </c>
       <c r="G6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="H6" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>29</v>
+        <v>84</v>
+      </c>
+      <c r="B7" t="s">
+        <v>85</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
       </c>
       <c r="D7">
-        <v>358</v>
+        <v>263</v>
       </c>
       <c r="E7" t="s">
-        <v>6</v>
+        <v>86</v>
       </c>
       <c r="F7">
         <v>260</v>
       </c>
       <c r="G7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="H7" t="s">
-        <v>32</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>29</v>
+        <v>88</v>
+      </c>
+      <c r="B8" t="s">
+        <v>89</v>
       </c>
       <c r="C8" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D8">
-        <v>376</v>
+        <v>500</v>
       </c>
       <c r="E8" t="s">
-        <v>14</v>
+        <v>91</v>
       </c>
       <c r="F8">
-        <v>260</v>
+        <v>360</v>
       </c>
       <c r="G8" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="H8" t="s">
-        <v>32</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>28</v>
+        <v>92</v>
+      </c>
+      <c r="B9" t="s">
+        <v>93</v>
       </c>
       <c r="C9" t="s">
-        <v>16</v>
+        <v>94</v>
       </c>
       <c r="D9">
-        <v>440</v>
+        <v>340</v>
       </c>
       <c r="E9" t="s">
-        <v>5</v>
+        <v>95</v>
       </c>
       <c r="F9">
         <v>260</v>
       </c>
       <c r="G9" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H9" t="s">
-        <v>33</v>
+        <v>87</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>29</v>
+        <v>96</v>
+      </c>
+      <c r="B10" t="s">
+        <v>97</v>
       </c>
       <c r="C10" t="s">
-        <v>5</v>
+        <v>98</v>
       </c>
       <c r="D10">
-        <v>170</v>
+        <v>450</v>
       </c>
       <c r="E10" t="s">
-        <v>23</v>
+        <v>99</v>
       </c>
       <c r="F10">
-        <v>185</v>
+        <v>285</v>
       </c>
       <c r="G10" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="H10" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C11" t="s">
-        <v>5</v>
-      </c>
-      <c r="D11">
-        <v>1053</v>
-      </c>
-      <c r="E11" t="s">
-        <v>34</v>
-      </c>
-      <c r="F11">
-        <v>260</v>
-      </c>
-      <c r="G11" t="s">
-        <v>20</v>
-      </c>
-      <c r="H11" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C12" t="s">
-        <v>12</v>
-      </c>
-      <c r="D12">
-        <v>678</v>
-      </c>
-      <c r="E12" t="s">
-        <v>38</v>
-      </c>
-      <c r="F12">
-        <v>185</v>
-      </c>
-      <c r="G12" t="s">
-        <v>20</v>
-      </c>
-      <c r="H12" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C13" t="s">
-        <v>12</v>
-      </c>
-      <c r="D13">
-        <v>254</v>
-      </c>
-      <c r="E13" t="s">
-        <v>41</v>
-      </c>
-      <c r="F13">
-        <v>260</v>
-      </c>
-      <c r="G13" t="s">
-        <v>21</v>
-      </c>
-      <c r="H13" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C14" t="s">
-        <v>5</v>
-      </c>
-      <c r="D14">
-        <v>376</v>
-      </c>
-      <c r="E14" t="s">
-        <v>44</v>
-      </c>
-      <c r="F14">
-        <v>260</v>
-      </c>
-      <c r="G14" t="s">
-        <v>21</v>
-      </c>
-      <c r="H14" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C15" t="s">
-        <v>5</v>
-      </c>
-      <c r="D15">
-        <v>728</v>
-      </c>
-      <c r="E15" t="s">
-        <v>47</v>
-      </c>
-      <c r="F15">
-        <v>260</v>
-      </c>
-      <c r="G15" t="s">
-        <v>20</v>
-      </c>
-      <c r="H15" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C16" t="s">
-        <v>5</v>
-      </c>
-      <c r="D16">
-        <v>1008</v>
-      </c>
-      <c r="E16" t="s">
-        <v>47</v>
-      </c>
-      <c r="F16">
-        <v>260</v>
-      </c>
-      <c r="G16" t="s">
-        <v>20</v>
-      </c>
-      <c r="H16" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C17" t="s">
-        <v>5</v>
-      </c>
-      <c r="D17">
-        <v>1200</v>
-      </c>
-      <c r="E17" t="s">
-        <v>47</v>
-      </c>
-      <c r="F17">
-        <v>260</v>
-      </c>
-      <c r="G17" t="s">
-        <v>20</v>
-      </c>
-      <c r="H17" t="s">
-        <v>48</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
